--- a/Tilesets_MapBox.xlsx
+++ b/Tilesets_MapBox.xlsx
@@ -1,36 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicahoch/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.hoch\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="460" windowWidth="16940" windowHeight="12220"/>
+    <workbookView xWindow="2820" yWindow="465" windowWidth="16935" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
   <si>
     <t xml:space="preserve">Project </t>
   </si>
@@ -108,6 +105,111 @@
   </si>
   <si>
     <t>Wading_Bird_Count_Survey_Points_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyster Substrate Survey </t>
+  </si>
+  <si>
+    <t>Oyster-Substrate</t>
+  </si>
+  <si>
+    <t>jmkhoch.cjsvzh59w0gik32rsmgau3drp-60ebk</t>
+  </si>
+  <si>
+    <t>Fish-WQ-Project-2019</t>
+  </si>
+  <si>
+    <t>Wild-Oyster-Survey</t>
+  </si>
+  <si>
+    <t>Benthic-Macroinvertebrate-Survey</t>
+  </si>
+  <si>
+    <t>pollinator-survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish &amp; Water Quality Survey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Oyster Population Survey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benthic MacroInvertebrate Survey of the Little Hell Gate Salt Marsh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pollinator Surveys </t>
+  </si>
+  <si>
+    <t>jmkhoch.cjsvzgcmm0dhi2rqsls6msy0d-4f4n2</t>
+  </si>
+  <si>
+    <t>jmkhoch.cjsvznykb02t22so2eomqip06-24ueg</t>
+  </si>
+  <si>
+    <t>jmkhoch.cjsvzo5zq0iy82wrsjor40rkd-1l6yt</t>
+  </si>
+  <si>
+    <t>jmkhoch.cjsvzoelh06nh2wpdify23aus-3k9fj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ongoing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic partner project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegetation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildlife </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water quality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color </t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange </t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shape </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circle </t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Shape-Fill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hollow Fill </t>
   </si>
 </sst>
 </file>
@@ -475,19 +577,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +603,26 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -514,8 +635,26 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -528,8 +667,26 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -542,8 +699,26 @@
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -556,8 +731,26 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -570,8 +763,26 @@
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -584,8 +795,26 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -597,6 +826,184 @@
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
